--- a/xorshop/Advertisement_REST_call_details_v3.xlsx
+++ b/xorshop/Advertisement_REST_call_details_v3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulkarni_an\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_dir\freshbatch-july17\xorshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19980" windowHeight="8070"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15120" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Posts new advertise</t>
   </si>
   <si>
-    <t>{"title": "laptop sale", "name": "Anand Kulkarni", "category": "Hardware", "description": "intel core 3", "photoCount": 2, "photo1": binaryFile, "photo2": binaryFile}</t>
-  </si>
-  <si>
     <t>/posts</t>
   </si>
   <si>
@@ -200,11 +197,14 @@
   <si>
     <t>Returns all possible date conditions including EQUALS, BETWEEN, ON/AFTER, AFTER, BEFORE and ON/BEFORE</t>
   </si>
+  <si>
+    <t>{"title": "laptop sale", "name": "Anand Kulkarni", "category": "Hardware", "description": "intel core 3",</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,6 +414,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -449,6 +466,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
@@ -730,7 +764,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="2"/>
@@ -748,7 +782,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>15</v>
@@ -757,7 +791,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10" ht="45" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>5</v>
       </c>
@@ -774,7 +808,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>12</v>
@@ -786,19 +820,19 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -811,10 +845,10 @@
         <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>15</v>
@@ -831,10 +865,10 @@
         <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>15</v>
@@ -842,7 +876,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -853,10 +887,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>15</v>
@@ -864,7 +898,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -875,10 +909,10 @@
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>15</v>
@@ -886,7 +920,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="30" x14ac:dyDescent="0.25">
@@ -897,10 +931,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>15</v>
@@ -908,7 +942,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="3:12" ht="45" x14ac:dyDescent="0.25">
@@ -919,16 +953,16 @@
         <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="3:12" ht="45" x14ac:dyDescent="0.25">
@@ -939,16 +973,16 @@
         <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -961,10 +995,10 @@
         <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>15</v>
@@ -981,10 +1015,10 @@
         <v>17</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>15</v>
@@ -992,7 +1026,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="3:12" ht="30" x14ac:dyDescent="0.25">
@@ -1003,16 +1037,16 @@
         <v>4</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1025,14 +1059,14 @@
         <v>4</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -1045,10 +1079,10 @@
         <v>17</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>15</v>
@@ -1056,7 +1090,7 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/xorshop/Advertisement_REST_call_details_v3.xlsx
+++ b/xorshop/Advertisement_REST_call_details_v3.xlsx
@@ -228,7 +228,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -293,6 +299,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +721,7 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -734,7 +743,7 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -754,7 +763,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="3:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C9" s="3">
+      <c r="C9" s="9">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -792,7 +801,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="3:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
+      <c r="C11" s="9">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -838,7 +847,7 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -858,7 +867,7 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="3">
+      <c r="C14" s="9">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -946,7 +955,7 @@
       </c>
     </row>
     <row r="18" spans="3:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="C18" s="3">
+      <c r="C18" s="9">
         <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1052,7 +1061,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="3:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="C23" s="3">
+      <c r="C23" s="9">
         <v>17</v>
       </c>
       <c r="D23" s="5" t="s">
